--- a/Final Areas.xlsx
+++ b/Final Areas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +397,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>area_50</t>
+          <t>area_298__2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -406,25 +406,25 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.6552396878483835</v>
+        <v>0.6557971014492754</v>
       </c>
       <c r="D2">
-        <v>0.3879598662207357</v>
+        <v>0.3311036789297659</v>
       </c>
       <c r="E2">
-        <v>110.756971034317</v>
+        <v>176.11940940228</v>
       </c>
       <c r="F2">
-        <v>0.6923076923076923</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G2">
-        <v>0.6956521739130435</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>area_119</t>
+          <t>area_338</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -433,25 +433,25 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.644927536231884</v>
+        <v>0.6070234113712375</v>
       </c>
       <c r="D3">
-        <v>0.3701226309921961</v>
+        <v>0.3249721293199554</v>
       </c>
       <c r="E3">
-        <v>112.403100775193</v>
+        <v>119.834710743801</v>
       </c>
       <c r="F3">
-        <v>0.717948717948718</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="G3">
-        <v>0.6521739130434783</v>
+        <v>0.7608695652173914</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>area_63</t>
+          <t>area_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -460,25 +460,25 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.6376811594202899</v>
+        <v>0.6686176142697882</v>
       </c>
       <c r="D4">
-        <v>0.3662207357859533</v>
+        <v>0.3210702341137124</v>
       </c>
       <c r="E4">
-        <v>169.247789203838</v>
+        <v>113.861386138613</v>
       </c>
       <c r="F4">
-        <v>0.6923076923076923</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G4">
-        <v>0.6739130434782609</v>
+        <v>0.7826086956521739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>area_60</t>
+          <t>area_215</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -487,25 +487,25 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.6482720178372352</v>
+        <v>0.620958751393534</v>
       </c>
       <c r="D5">
-        <v>0.3444816053511706</v>
+        <v>0.3071348940914158</v>
       </c>
       <c r="E5">
-        <v>171.163585611829</v>
+        <v>11.48648705489465</v>
       </c>
       <c r="F5">
-        <v>0.6923076923076923</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="G5">
-        <v>0.6521739130434783</v>
+        <v>0.7173913043478261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>area_298__2</t>
+          <t>area_62</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -514,25 +514,25 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.6557971014492754</v>
+        <v>0.6176142697881828</v>
       </c>
       <c r="D6">
-        <v>0.3311036789297659</v>
+        <v>0.3032329988851727</v>
       </c>
       <c r="E6">
-        <v>176.11940940228</v>
+        <v>43.23308270676689</v>
       </c>
       <c r="F6">
-        <v>0.4615384615384616</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="G6">
-        <v>0.8695652173913043</v>
+        <v>0.7391304347826086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>area_338</t>
+          <t>area_246</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -541,153 +541,18 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.6070234113712375</v>
+        <v>0.6332218506131549</v>
       </c>
       <c r="D7">
-        <v>0.3249721293199554</v>
+        <v>0.3032329988851727</v>
       </c>
       <c r="E7">
-        <v>119.834710743801</v>
+        <v>13.8190963250243</v>
       </c>
       <c r="F7">
         <v>0.5641025641025641</v>
       </c>
       <c r="G7">
-        <v>0.7608695652173914</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>area_61</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>0.6686176142697882</v>
-      </c>
-      <c r="D8">
-        <v>0.3210702341137124</v>
-      </c>
-      <c r="E8">
-        <v>113.861386138613</v>
-      </c>
-      <c r="F8">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="G8">
-        <v>0.7826086956521739</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>area_345__2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>0.6591415830546266</v>
-      </c>
-      <c r="D9">
-        <v>0.3110367892976589</v>
-      </c>
-      <c r="E9">
-        <v>55.6492422921932</v>
-      </c>
-      <c r="F9">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="G9">
-        <v>0.6956521739130435</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>area_215</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>0.620958751393534</v>
-      </c>
-      <c r="D10">
-        <v>0.3071348940914158</v>
-      </c>
-      <c r="E10">
-        <v>11.48648705489465</v>
-      </c>
-      <c r="F10">
-        <v>0.5897435897435898</v>
-      </c>
-      <c r="G10">
-        <v>0.7173913043478261</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>area_62</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>0.6176142697881828</v>
-      </c>
-      <c r="D11">
-        <v>0.3032329988851727</v>
-      </c>
-      <c r="E11">
-        <v>43.23308270676689</v>
-      </c>
-      <c r="F11">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="G11">
-        <v>0.7391304347826086</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>area_246</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>0.6332218506131549</v>
-      </c>
-      <c r="D12">
-        <v>0.3032329988851727</v>
-      </c>
-      <c r="E12">
-        <v>13.8190963250243</v>
-      </c>
-      <c r="F12">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="G12">
         <v>0.7391304347826086</v>
       </c>
     </row>
